--- a/webdownload/files/JustvsZieZo.xlsx
+++ b/webdownload/files/JustvsZieZo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\OneDrive\Bureaublad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{7C3633A5-072A-46F4-8910-9DACA0B77523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DCEA72-C268-47C6-A0DF-63123BCABD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,15 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -452,26 +443,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -481,14 +481,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -806,12 +806,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:H55"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -825,16 +823,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="F1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -857,19 +855,19 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -877,226 +875,226 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="24"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="24"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
@@ -1110,108 +1108,108 @@
       <c r="H19" s="30"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="24"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
@@ -1225,108 +1223,108 @@
       <c r="H30" s="30"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="24"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="24"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="28" t="s">
@@ -1340,108 +1338,108 @@
       <c r="H41" s="30"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="27"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="24"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="24"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="28" t="s">
@@ -1455,62 +1453,95 @@
       <c r="H52" s="30"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="27"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="27"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="27"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="21"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="27"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="21"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="33"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B47:H47"/>
@@ -1521,40 +1552,7 @@
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="B54:H54"/>
     <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
     <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/webdownload/files/JustvsZieZo.xlsx
+++ b/webdownload/files/JustvsZieZo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\OneDrive\Bureaublad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DCEA72-C268-47C6-A0DF-63123BCABD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FEB1ED-36E4-42D7-BC0F-36CA7424BC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t>Prijs</t>
   </si>
@@ -156,12 +156,6 @@
     <t>Voorbeeld 1: van Just basis naar Just basis + tand 1</t>
   </si>
   <si>
-    <t>Tandzorg 1 extra kosten  = € 78.00 (per jaar)</t>
-  </si>
-  <si>
-    <t>Tandzorg 1 extra kosten = € 71.40 (per jaar)</t>
-  </si>
-  <si>
     <t>Basisprijs ZieZo = € 112.25 per maand.</t>
   </si>
   <si>
@@ -192,15 +186,9 @@
     <t>Vergoeding = 100%</t>
   </si>
   <si>
-    <t>Tandzorg 1 extra kosten = € 135.60 (per jaar)</t>
-  </si>
-  <si>
     <t>Tandartskosten = € 135.60</t>
   </si>
   <si>
-    <t>Dus 135.60 x 0.00 + 135.60 = 0 + 135.60 = € 135.60</t>
-  </si>
-  <si>
     <t>Minimale tandartskosten per jaar om goedkoper uit te komen met Tandzorg 1 zijn dus € 135.61</t>
   </si>
   <si>
@@ -210,16 +198,61 @@
     <t>Basisprijs ZieZo + Tandzorg 1 ZieZo = 112.25 + 10.75 = € 123.00 per maand. (10.75 x 12 = € 129 per jaar meer)</t>
   </si>
   <si>
-    <t>Tandzorg 1 extra kosten = € 129 (per jaar)</t>
-  </si>
-  <si>
     <t>Tandartskosten = € 129.00</t>
   </si>
   <si>
-    <t>Dus 129.00 x 0.00 + 129.00 = 0 + 129.00 = € 129.00</t>
-  </si>
-  <si>
     <t>Minimale tandartskosten per jaar om goedkoper uit te komen met Tandzorg 1 zijn dus € 129.01</t>
+  </si>
+  <si>
+    <t>Basisprijs Just + Tandzorg 1 Just = 111.70 + 6.50 = € 118.20 per maand.</t>
+  </si>
+  <si>
+    <t>Basisprijs ZieZo + Tandzorg 1 ZieZo = 112.25 + 10.75 = € 123.00 per maand.</t>
+  </si>
+  <si>
+    <t>Voorbeeld 5: van Just basis + tand 1 naar ZieZo basis + tand 1</t>
+  </si>
+  <si>
+    <t>Tandartskosten = € 230.40</t>
+  </si>
+  <si>
+    <t>Dus 230.40 x 0.25 +  = 57.60 + 71.40 = € 129.00</t>
+  </si>
+  <si>
+    <t>Tandzorg 1 extra kosten  = € 78.00 per jaar</t>
+  </si>
+  <si>
+    <t>Tandzorg 1 extra kosten = € 71.40 per jaar</t>
+  </si>
+  <si>
+    <t>Tandzorg 1 extra kosten = € 135.60 per jaar</t>
+  </si>
+  <si>
+    <t>Tandzorg 1 extra kosten = € 129 per jaar</t>
+  </si>
+  <si>
+    <t>Just Tandzorg 1 extra kosten = € 71.40 per jaar</t>
+  </si>
+  <si>
+    <t>Dus 230.40 x 0.00 +  = 0.00 + 129.00 = € 129.00</t>
+  </si>
+  <si>
+    <t>Dus 129.00 x 0.00 + 129.00 = 0.00 + 129.00 = € 129.00</t>
+  </si>
+  <si>
+    <t>Dus 135.60 x 0.00 + 135.60 = 0.00 + 135.60 = € 135.60</t>
+  </si>
+  <si>
+    <t>Minimale tandartskosten per jaar om goedkoper uit te komen met Tandzorg 1 van ZieZo t.o.v. Tandzorg 1 van Just zijn dus € 230.41</t>
+  </si>
+  <si>
+    <t>Voorbeeld Just Tandzorg 1:</t>
+  </si>
+  <si>
+    <t>Voorbeeld ZieZo Tandzorg 1:</t>
+  </si>
+  <si>
+    <t>ZieZo Tandzorg 1 extra kosten = € 129.00 per jaar (129 - 71.40 =  € 57.60 meer dan Just Tandzorg 1)</t>
   </si>
 </sst>
 </file>
@@ -401,7 +434,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -463,6 +496,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -471,15 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -823,16 +865,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="F1" s="31" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="F1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1066,35 +1108,35 @@
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="B17" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
@@ -1109,7 +1151,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -1181,26 +1223,26 @@
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
+      <c r="B28" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
@@ -1213,7 +1255,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -1224,7 +1266,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -1235,7 +1277,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -1257,7 +1299,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
@@ -1268,7 +1310,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -1296,26 +1338,26 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
+      <c r="B39" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
@@ -1328,7 +1370,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -1339,7 +1381,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="19" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
@@ -1350,7 +1392,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -1361,7 +1403,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -1372,7 +1414,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -1383,7 +1425,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -1411,26 +1453,26 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="27"/>
+      <c r="B49" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="33"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
+      <c r="B50" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="19"/>
@@ -1443,7 +1485,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -1454,7 +1496,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -1465,7 +1507,7 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -1476,7 +1518,7 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -1487,7 +1529,7 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -1497,18 +1539,199 @@
       <c r="H56" s="21"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="24"/>
+      <c r="B57" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="21"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="33"/>
+    </row>
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="21"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="30"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="21"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="30"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="21"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="30"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="21"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="21"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="21"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="61">
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B1:D1"/>
@@ -1553,6 +1776,23 @@
     <mergeCell ref="B54:H54"/>
     <mergeCell ref="B55:H55"/>
     <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/webdownload/files/JustvsZieZo.xlsx
+++ b/webdownload/files/JustvsZieZo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\OneDrive\Bureaublad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FEB1ED-36E4-42D7-BC0F-36CA7424BC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42146C27-5379-40D0-8B31-6769F76355D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>Prijs</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Basisprijs Just = € 111.70 per maand.</t>
   </si>
   <si>
-    <t>Conclusie</t>
-  </si>
-  <si>
     <t>Vergoeding = 75%</t>
   </si>
   <si>
@@ -204,21 +201,9 @@
     <t>Minimale tandartskosten per jaar om goedkoper uit te komen met Tandzorg 1 zijn dus € 129.01</t>
   </si>
   <si>
-    <t>Basisprijs Just + Tandzorg 1 Just = 111.70 + 6.50 = € 118.20 per maand.</t>
-  </si>
-  <si>
-    <t>Basisprijs ZieZo + Tandzorg 1 ZieZo = 112.25 + 10.75 = € 123.00 per maand.</t>
-  </si>
-  <si>
-    <t>Voorbeeld 5: van Just basis + tand 1 naar ZieZo basis + tand 1</t>
-  </si>
-  <si>
     <t>Tandartskosten = € 230.40</t>
   </si>
   <si>
-    <t>Dus 230.40 x 0.25 +  = 57.60 + 71.40 = € 129.00</t>
-  </si>
-  <si>
     <t>Tandzorg 1 extra kosten  = € 78.00 per jaar</t>
   </si>
   <si>
@@ -234,9 +219,6 @@
     <t>Just Tandzorg 1 extra kosten = € 71.40 per jaar</t>
   </si>
   <si>
-    <t>Dus 230.40 x 0.00 +  = 0.00 + 129.00 = € 129.00</t>
-  </si>
-  <si>
     <t>Dus 129.00 x 0.00 + 129.00 = 0.00 + 129.00 = € 129.00</t>
   </si>
   <si>
@@ -252,14 +234,50 @@
     <t>Voorbeeld ZieZo Tandzorg 1:</t>
   </si>
   <si>
-    <t>ZieZo Tandzorg 1 extra kosten = € 129.00 per jaar (129 - 71.40 =  € 57.60 meer dan Just Tandzorg 1)</t>
+    <t>Dus 230.40 x 0.25 + 71.40  = 57.60 + 71.40 = € 129.00</t>
+  </si>
+  <si>
+    <t>Dus 230.40 x 0.00 + 129.00 = 0.00 + 129.00 = € 129.00</t>
+  </si>
+  <si>
+    <t>Voorbeelden</t>
+  </si>
+  <si>
+    <t>ZieZo Tandzorg 1 extra kosten = € 129.00 per jaar (129 - 71.40 = € 57.60 meer dan Just Tandzorg 1)</t>
+  </si>
+  <si>
+    <t>Just Tandzorg 1 extra kosten = € 78.00 per jaar</t>
+  </si>
+  <si>
+    <t>Tandartskosten = € 204.00</t>
+  </si>
+  <si>
+    <t>Dus 204.00 x 0.25 + 78.00  = 51.00 + 78.00 = € 129.00</t>
+  </si>
+  <si>
+    <t>Dus 204.00 x 0.00 + 129.00 = 0.00 + 129.00 = € 129.00</t>
+  </si>
+  <si>
+    <t>Minimale tandartskosten per jaar om goedkoper uit te komen met Tandzorg 1 van ZieZo t.o.v. Tandzorg 1 van Just zijn dus € 204.01</t>
+  </si>
+  <si>
+    <t>Voorbeeld 5: van Just basis naar Just basis + tand 1 / van ZieZo basis naar ZieZo basis + tand 1</t>
+  </si>
+  <si>
+    <t>Voorbeeld 6: van ZieZo basis naar Just basis + tand 1 / van ZieZo basis naar ZieZo basis + tand 1</t>
+  </si>
+  <si>
+    <t>Basisprijs ZieZo + Tandzorg 1 ZieZo = 112.25 + 10.75 = € 123.00 per maand. (10.75 x 12 = € 129.00 per jaar meer)</t>
+  </si>
+  <si>
+    <t>ZieZo Tandzorg 1 extra kosten = € 129.00 per jaar (129 - 78.00 = € 51.00 meer dan Just Tandzorg 1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +325,12 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -487,6 +511,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -495,42 +555,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -849,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H74"/>
+  <dimension ref="B1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -865,16 +889,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="F1" s="34" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1098,7 +1122,7 @@
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1108,39 +1132,39 @@
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
+      <c r="B17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -1151,7 +1175,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -1162,7 +1186,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -1173,7 +1197,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -1184,7 +1208,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -1195,7 +1219,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -1223,26 +1247,26 @@
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="B27" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="B28" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
@@ -1255,7 +1279,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -1266,7 +1290,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -1277,7 +1301,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -1288,7 +1312,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -1299,7 +1323,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
@@ -1310,7 +1334,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -1338,26 +1362,26 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
+      <c r="B39" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
@@ -1370,7 +1394,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -1381,7 +1405,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
@@ -1392,7 +1416,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -1403,7 +1427,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -1414,7 +1438,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -1425,7 +1449,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -1453,26 +1477,26 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
+      <c r="B49" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
+      <c r="B50" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="19"/>
@@ -1485,7 +1509,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -1496,7 +1520,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -1507,7 +1531,7 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -1518,7 +1542,7 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -1529,7 +1553,7 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -1540,7 +1564,7 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -1568,26 +1592,26 @@
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="33"/>
+      <c r="B60" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
+      <c r="B61" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="19"/>
@@ -1600,7 +1624,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
@@ -1611,7 +1635,7 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -1622,7 +1646,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="19" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -1633,7 +1657,7 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
@@ -1643,19 +1667,19 @@
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="27"/>
+      <c r="B67" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="33"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -1665,19 +1689,19 @@
       <c r="H68" s="21"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="27"/>
+      <c r="B69" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="33"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
@@ -1688,7 +1712,7 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="19" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -1699,7 +1723,7 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -1710,7 +1734,7 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
@@ -1720,29 +1744,254 @@
       <c r="H73" s="21"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="21"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="21"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="21"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="21"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="30"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="21"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="24"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="21"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="30"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="33"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="21"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="33"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="30"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="21"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="21"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="21"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
+  <mergeCells count="78">
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B25:H25"/>
@@ -1755,45 +2004,19 @@
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/webdownload/files/JustvsZieZo.xlsx
+++ b/webdownload/files/JustvsZieZo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\OneDrive\Bureaublad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42146C27-5379-40D0-8B31-6769F76355D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E4BD0-3D71-4495-916F-9674CB51C484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
   <si>
     <t>Prijs</t>
   </si>
@@ -249,28 +249,22 @@
     <t>Just Tandzorg 1 extra kosten = € 78.00 per jaar</t>
   </si>
   <si>
-    <t>Tandartskosten = € 204.00</t>
-  </si>
-  <si>
-    <t>Dus 204.00 x 0.25 + 78.00  = 51.00 + 78.00 = € 129.00</t>
-  </si>
-  <si>
-    <t>Dus 204.00 x 0.00 + 129.00 = 0.00 + 129.00 = € 129.00</t>
-  </si>
-  <si>
-    <t>Minimale tandartskosten per jaar om goedkoper uit te komen met Tandzorg 1 van ZieZo t.o.v. Tandzorg 1 van Just zijn dus € 204.01</t>
-  </si>
-  <si>
-    <t>Voorbeeld 5: van Just basis naar Just basis + tand 1 / van ZieZo basis naar ZieZo basis + tand 1</t>
-  </si>
-  <si>
     <t>Voorbeeld 6: van ZieZo basis naar Just basis + tand 1 / van ZieZo basis naar ZieZo basis + tand 1</t>
   </si>
   <si>
     <t>Basisprijs ZieZo + Tandzorg 1 ZieZo = 112.25 + 10.75 = € 123.00 per maand. (10.75 x 12 = € 129.00 per jaar meer)</t>
   </si>
   <si>
-    <t>ZieZo Tandzorg 1 extra kosten = € 129.00 per jaar (129 - 78.00 = € 51.00 meer dan Just Tandzorg 1)</t>
+    <t>ZieZo Tandzorg 1 extra kosten = € 135.60 per jaar (135.60 - 78.00 = € 57.60 meer dan Just Tandzorg 1)</t>
+  </si>
+  <si>
+    <t>Dus 230.40 x 0.25 + 78.00  = 57.60 + 78.00 = € 135.60</t>
+  </si>
+  <si>
+    <t>Dus 230.40 x 0.00 + 135.60 = 0.00 + 135.60 = € 135.60</t>
+  </si>
+  <si>
+    <t>Voorbeeld 5: van Just basis naar Just basis + tand 1 / van Just basis naar ZieZo basis + tand 1</t>
   </si>
 </sst>
 </file>
@@ -503,6 +497,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -511,6 +514,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,42 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -889,16 +883,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="22" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="F1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1132,35 +1126,35 @@
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
@@ -1174,108 +1168,108 @@
       <c r="H19" s="30"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
@@ -1289,108 +1283,108 @@
       <c r="H30" s="30"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="28" t="s">
@@ -1404,108 +1398,108 @@
       <c r="H41" s="30"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="27"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="28" t="s">
@@ -1519,112 +1513,112 @@
       <c r="H52" s="30"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="21"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="21"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="21"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="21"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="21"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="27"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="21"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
+      <c r="B61" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="21"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
@@ -1634,26 +1628,26 @@
       <c r="H63" s="30"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
+      <c r="B65" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="28" t="s">
@@ -1667,37 +1661,37 @@
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="33"/>
+      <c r="B67" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="27"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="21"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="24"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="33"/>
+      <c r="B69" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
@@ -1711,101 +1705,101 @@
       <c r="H70" s="30"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="21"/>
+      <c r="B71" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="24"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="21"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="24"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="21"/>
+      <c r="B73" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="24"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="21"/>
+      <c r="B74" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="24"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="21"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="24"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="24"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="27"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="21"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="27"/>
+      <c r="B78" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="21"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="21"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="24"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
@@ -1815,26 +1809,26 @@
       <c r="H80" s="30"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="21"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="24"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="21"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="24"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
@@ -1848,37 +1842,37 @@
       <c r="H83" s="30"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="33"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="21"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="24"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="33"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="28" t="s">
@@ -1892,106 +1886,62 @@
       <c r="H87" s="30"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="21"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="24"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="21"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="24"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="21"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="24"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="36"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B25:H25"/>
@@ -2004,17 +1954,61 @@
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webdownload/files/JustvsZieZo.xlsx
+++ b/webdownload/files/JustvsZieZo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\OneDrive\Bureaublad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E4BD0-3D71-4495-916F-9674CB51C484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8133E98A-5BF6-49D7-9B7C-6BB5BE3E4E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
   <si>
     <t>Prijs</t>
   </si>
@@ -90,24 +90,9 @@
     <t>Diëtisten</t>
   </si>
   <si>
-    <t>(2020) 69%</t>
-  </si>
-  <si>
-    <t>(2020) 78%</t>
-  </si>
-  <si>
-    <t>(2020) 94%</t>
-  </si>
-  <si>
-    <t>(2020) 74%</t>
-  </si>
-  <si>
     <t>(2020) 86%</t>
   </si>
   <si>
-    <t>(2020) 58%</t>
-  </si>
-  <si>
     <t>Beter</t>
   </si>
   <si>
@@ -265,6 +250,24 @@
   </si>
   <si>
     <t>Voorbeeld 5: van Just basis naar Just basis + tand 1 / van Just basis naar ZieZo basis + tand 1</t>
+  </si>
+  <si>
+    <t>(2021) 100%</t>
+  </si>
+  <si>
+    <t>(2021) 94%</t>
+  </si>
+  <si>
+    <t>(2021) 70%</t>
+  </si>
+  <si>
+    <t>(2021) 80%</t>
+  </si>
+  <si>
+    <t>(2021) 74%</t>
+  </si>
+  <si>
+    <t>(2021) 58%</t>
   </si>
 </sst>
 </file>
@@ -497,6 +500,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -505,13 +526,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -523,15 +544,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -540,15 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -883,16 +886,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="F1" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -919,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -939,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>1</v>
@@ -959,10 +962,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>3</v>
@@ -979,10 +982,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>5</v>
@@ -999,10 +1002,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -1019,7 +1022,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>17</v>
@@ -1028,7 +1031,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>17</v>
@@ -1039,19 +1042,19 @@
         <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -1059,19 +1062,19 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -1079,44 +1082,44 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1126,39 +1129,39 @@
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
+      <c r="B16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="B17" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -1168,112 +1171,112 @@
       <c r="H19" s="30"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+      <c r="B20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="B21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
+      <c r="B28" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -1283,112 +1286,112 @@
       <c r="H30" s="30"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+      <c r="B31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
-    </row>
-    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -1398,112 +1401,112 @@
       <c r="H41" s="30"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
+      <c r="B42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
+      <c r="B43" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="24"/>
+      <c r="B44" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="24"/>
+      <c r="B45" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="24"/>
+      <c r="B46" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
+      <c r="B49" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21"/>
+      <c r="B50" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="24"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -1513,112 +1516,112 @@
       <c r="H52" s="30"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
+      <c r="B53" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="24"/>
+      <c r="B54" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="24"/>
+      <c r="B55" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="21"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="24"/>
+      <c r="B56" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="21"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="24"/>
+      <c r="B57" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="21"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="24"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="21"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="24"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="21"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="21"/>
+      <c r="B60" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="21"/>
+      <c r="B61" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="24"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="21"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
@@ -1628,30 +1631,30 @@
       <c r="H63" s="30"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="24"/>
+      <c r="B64" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="24"/>
+      <c r="B65" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="21"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
@@ -1661,41 +1664,41 @@
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="27"/>
+      <c r="B67" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="33"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="24"/>
+      <c r="B68" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="21"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="27"/>
+      <c r="B69" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="33"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
@@ -1705,101 +1708,101 @@
       <c r="H70" s="30"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="24"/>
+      <c r="B71" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="21"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="24"/>
+      <c r="B72" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="21"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="24"/>
+      <c r="B73" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="21"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="24"/>
+      <c r="B74" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="21"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="24"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="21"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="24"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="21"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="21"/>
+      <c r="B77" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="21"/>
+      <c r="B78" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="24"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="21"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
@@ -1809,30 +1812,30 @@
       <c r="H80" s="30"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="24"/>
+      <c r="B81" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="21"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="24"/>
+      <c r="B82" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="21"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
@@ -1842,41 +1845,41 @@
       <c r="H83" s="30"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="27"/>
+      <c r="B84" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="33"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="24"/>
+      <c r="B85" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="21"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="27"/>
+      <c r="B86" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="33"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
@@ -1886,62 +1889,106 @@
       <c r="H87" s="30"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="24"/>
+      <c r="B88" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="21"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="24"/>
+      <c r="B89" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="21"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="24"/>
+      <c r="B90" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="21"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="33"/>
+      <c r="B91" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B25:H25"/>
@@ -1954,61 +2001,17 @@
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webdownload/files/JustvsZieZo.xlsx
+++ b/webdownload/files/JustvsZieZo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\OneDrive\Bureaublad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8133E98A-5BF6-49D7-9B7C-6BB5BE3E4E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C01145-8C78-4AA7-A991-2D72D86CAF0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Diëtisten</t>
   </si>
   <si>
-    <t>(2020) 86%</t>
-  </si>
-  <si>
     <t>Beter</t>
   </si>
   <si>
@@ -258,16 +255,19 @@
     <t>(2021) 94%</t>
   </si>
   <si>
-    <t>(2021) 70%</t>
-  </si>
-  <si>
-    <t>(2021) 80%</t>
-  </si>
-  <si>
     <t>(2021) 74%</t>
   </si>
   <si>
     <t>(2021) 58%</t>
+  </si>
+  <si>
+    <t>(2021) 71%</t>
+  </si>
+  <si>
+    <t>(2021) 82%</t>
+  </si>
+  <si>
+    <t>(2021) 86%</t>
   </si>
 </sst>
 </file>
@@ -500,6 +500,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -508,6 +517,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,42 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -886,16 +886,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="F1" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -922,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -942,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>1</v>
@@ -962,10 +962,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>3</v>
@@ -982,10 +982,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>5</v>
@@ -1002,10 +1002,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -1022,7 +1022,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>17</v>
@@ -1031,7 +1031,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>17</v>
@@ -1042,19 +1042,19 @@
         <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -1062,19 +1062,19 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -1082,44 +1082,44 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>24</v>
-      </c>
       <c r="F13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="H13" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1129,39 +1129,39 @@
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="B16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="B17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -1171,112 +1171,112 @@
       <c r="H19" s="30"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="B20" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
+      <c r="B28" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -1286,112 +1286,112 @@
       <c r="H30" s="30"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
+      <c r="B31" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
+      <c r="B38" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
+      <c r="B39" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -1401,112 +1401,112 @@
       <c r="H41" s="30"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21"/>
+      <c r="B42" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="27"/>
+      <c r="B49" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
+      <c r="B50" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -1516,112 +1516,112 @@
       <c r="H52" s="30"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="21"/>
+      <c r="B53" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="21"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="21"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="21"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="21"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="27"/>
+      <c r="B60" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="21"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
+      <c r="B61" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="21"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
@@ -1631,30 +1631,30 @@
       <c r="H63" s="30"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
+      <c r="B64" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
+      <c r="B65" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
@@ -1664,41 +1664,41 @@
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="33"/>
+      <c r="B67" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="27"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="21"/>
+      <c r="B68" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="24"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="33"/>
+      <c r="B69" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
@@ -1708,101 +1708,101 @@
       <c r="H70" s="30"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="21"/>
+      <c r="B71" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="24"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="21"/>
+      <c r="B72" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="24"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="21"/>
+      <c r="B73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="24"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="21"/>
+      <c r="B74" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="24"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="21"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="24"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="24"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="27"/>
+      <c r="B77" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="21"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="27"/>
+      <c r="B78" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="21"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="21"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="24"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
@@ -1812,30 +1812,30 @@
       <c r="H80" s="30"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="21"/>
+      <c r="B81" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="24"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="21"/>
+      <c r="B82" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="24"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
@@ -1845,41 +1845,41 @@
       <c r="H83" s="30"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="33"/>
+      <c r="B84" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="21"/>
+      <c r="B85" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="24"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="33"/>
+      <c r="B86" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
@@ -1889,106 +1889,62 @@
       <c r="H87" s="30"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="21"/>
+      <c r="B88" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="24"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="21"/>
+      <c r="B89" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="24"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="21"/>
+      <c r="B90" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="24"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="36"/>
+      <c r="B91" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B25:H25"/>
@@ -2001,17 +1957,61 @@
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webdownload/files/JustvsZieZo.xlsx
+++ b/webdownload/files/JustvsZieZo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\OneDrive\Bureaublad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C01145-8C78-4AA7-A991-2D72D86CAF0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8F7CB9-E3F7-4EBE-95F8-AD66CE6DD9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
   <si>
     <t>Prijs</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Ziekenhuizen</t>
   </si>
   <si>
-    <t>(2020) 100%</t>
-  </si>
-  <si>
     <t>Fysiotherapeuten</t>
   </si>
   <si>
@@ -252,12 +249,6 @@
     <t>(2021) 100%</t>
   </si>
   <si>
-    <t>(2021) 94%</t>
-  </si>
-  <si>
-    <t>(2021) 74%</t>
-  </si>
-  <si>
     <t>(2021) 58%</t>
   </si>
   <si>
@@ -268,6 +259,12 @@
   </si>
   <si>
     <t>(2021) 86%</t>
+  </si>
+  <si>
+    <t>(2021) 75%</t>
+  </si>
+  <si>
+    <t>(2021) 93%</t>
   </si>
 </sst>
 </file>
@@ -892,7 +889,7 @@
       <c r="C1" s="35"/>
       <c r="D1" s="36"/>
       <c r="F1" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="36"/>
@@ -922,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -942,10 +939,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>1</v>
@@ -962,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>3</v>
@@ -982,10 +979,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>5</v>
@@ -1002,10 +999,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -1022,104 +1019,104 @@
         <v>16</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="F13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="H13" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1130,7 +1127,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -1141,7 +1138,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -1161,7 +1158,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -1172,7 +1169,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -1183,7 +1180,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -1194,7 +1191,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -1205,7 +1202,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -1216,7 +1213,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -1245,7 +1242,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -1256,7 +1253,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -1276,7 +1273,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -1287,7 +1284,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -1298,7 +1295,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -1309,7 +1306,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
@@ -1320,7 +1317,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -1331,7 +1328,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -1371,7 +1368,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -1391,7 +1388,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -1402,7 +1399,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
@@ -1413,7 +1410,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -1424,7 +1421,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -1435,7 +1432,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -1446,7 +1443,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -1475,7 +1472,7 @@
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
@@ -1486,7 +1483,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -1506,7 +1503,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -1528,7 +1525,7 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -1539,7 +1536,7 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -1550,7 +1547,7 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
@@ -1561,7 +1558,7 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -1590,7 +1587,7 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -1601,7 +1598,7 @@
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -1621,7 +1618,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
@@ -1632,7 +1629,7 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -1643,7 +1640,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
@@ -1654,7 +1651,7 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
@@ -1665,7 +1662,7 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
@@ -1676,7 +1673,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
@@ -1687,7 +1684,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
@@ -1698,7 +1695,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
@@ -1709,7 +1706,7 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="23"/>
@@ -1720,7 +1717,7 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
@@ -1731,7 +1728,7 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
@@ -1771,7 +1768,7 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -1782,7 +1779,7 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -1802,7 +1799,7 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
@@ -1813,7 +1810,7 @@
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -1824,7 +1821,7 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
@@ -1835,7 +1832,7 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
@@ -1846,7 +1843,7 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
@@ -1857,7 +1854,7 @@
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="23"/>
@@ -1868,7 +1865,7 @@
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
@@ -1879,7 +1876,7 @@
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
@@ -1890,7 +1887,7 @@
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="23"/>
@@ -1901,7 +1898,7 @@
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C89" s="23"/>
       <c r="D89" s="23"/>
@@ -1912,7 +1909,7 @@
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
@@ -1923,7 +1920,7 @@
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
